--- a/£YGEN.xlsx
+++ b/£YGEN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509F9475-AF5B-4469-AA56-8ECC5A0D4F1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD473276-4D80-4640-9998-EF4DB52BD3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33345" windowHeight="18900" xr2:uid="{A4FFAD19-4E43-47ED-9B64-A6E6865FC625}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33340" windowHeight="18900" activeTab="1" xr2:uid="{A4FFAD19-4E43-47ED-9B64-A6E6865FC625}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>Price</t>
   </si>
@@ -242,6 +252,30 @@
   </si>
   <si>
     <t>Stood down as chairman May 2022</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Manchester, UK</t>
+  </si>
+  <si>
+    <t>(Prev) Premaitha Health</t>
   </si>
 </sst>
 </file>
@@ -253,7 +287,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +320,21 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -405,11 +454,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -429,15 +479,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -467,22 +508,53 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -568,15 +640,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>796925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>796925</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -591,8 +663,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12239625" y="19050"/>
-          <a:ext cx="0" cy="10258425"/>
+          <a:off x="13090525" y="19050"/>
+          <a:ext cx="0" cy="8899525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -965,334 +1037,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C87B77-A347-4DCE-B529-972D59E5F710}">
-  <dimension ref="B2:AA24"/>
+  <dimension ref="B2:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
     <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="3"/>
+    <col min="3" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="F6" s="13" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="F6" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="15"/>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="38"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="17">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="F7" s="18" t="s">
+      <c r="C7" s="14">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="F7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="20"/>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="17"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>723.78</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="20"/>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="17"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <f>C7*C8</f>
-        <v>47.769480000000001</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="20"/>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
+        <v>23.522849999999998</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="17"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <f>4.674</f>
         <v>4.6740000000000004</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="20"/>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="17"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <f>0.042+0.081</f>
         <v>0.123</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="20"/>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="17"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <f>C10-C11</f>
         <v>4.5510000000000002</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="F12" s="24" t="s">
+      <c r="D12" s="30"/>
+      <c r="F12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="26"/>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B13" s="27" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="23"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B13" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="25">
         <f>C9-C12</f>
-        <v>43.21848</v>
-      </c>
-      <c r="D13" s="36"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+        <v>18.971849999999996</v>
+      </c>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="29" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="29" t="s">
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="26"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="32" t="s">
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="26"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="3" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="34">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="39"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="39"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="39"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="16">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F6:AA6"/>
@@ -1303,9 +1441,12 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C23:D23"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C34:D34" r:id="rId1" display="Link" xr:uid="{0ACFA3F3-C2B2-D44A-B021-929A46FB58E8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1313,25 +1454,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31EA327-38C2-4D0A-A5ED-19CFE1179260}">
   <dimension ref="B1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="B26:C44"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O3:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="3" customWidth="1"/>
     <col min="2" max="2" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="3"/>
-    <col min="12" max="16" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="3"/>
+    <col min="3" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="3"/>
+    <col min="12" max="16" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C1" s="4" t="s">
         <v>64</v>
       </c>
@@ -1360,14 +1501,14 @@
       <c r="N1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="43" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C2" s="1">
         <v>43373</v>
       </c>
@@ -1403,32 +1544,32 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>8.1809999999999992</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>17.45</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8">
         <v>8.8823620000000005</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="8">
         <v>16.613</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="8">
         <v>18.288</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1453,7 +1594,7 @@
         <v>6.9119999999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1484,10 +1625,10 @@
         <f>N3-N4</f>
         <v>11.376000000000001</v>
       </c>
-      <c r="O5" s="7"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1512,7 +1653,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1537,7 +1678,7 @@
         <v>13.483000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1567,7 +1708,7 @@
         <v>13.543000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>59</v>
       </c>
@@ -1598,10 +1739,10 @@
         <f>N5-N8</f>
         <v>-2.1669999999999998</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="8"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1626,7 +1767,7 @@
         <v>-2.0470000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>57</v>
       </c>
@@ -1659,7 +1800,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>58</v>
       </c>
@@ -1690,10 +1831,10 @@
         <f>N10-N11</f>
         <v>-11.709</v>
       </c>
-      <c r="O12" s="5"/>
+      <c r="O12" s="8"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>60</v>
       </c>
@@ -1726,7 +1867,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
@@ -1760,7 +1901,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1789,7 +1930,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1823,7 +1964,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>61</v>
       </c>
@@ -1853,7 +1994,7 @@
         <v>-1.7770165011602494E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +2019,7 @@
         <v>685.64360499999998</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>65</v>
       </c>
@@ -1893,7 +2034,7 @@
         <v>0.1008246553903569</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
@@ -1918,7 +2059,7 @@
         <v>0.62204724409448819</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>67</v>
       </c>
@@ -1943,7 +2084,7 @@
         <v>-0.640255905511811</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>66</v>
       </c>
@@ -1968,7 +2109,7 @@
         <v>-1.6662292213473315</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
@@ -1993,17 +2134,17 @@
         <v>-9.7168443851719673E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
@@ -2018,7 +2159,7 @@
         <v>5.9249999999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2033,7 +2174,7 @@
         <v>3.6019999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2048,7 +2189,7 @@
         <v>1.4370000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
@@ -2063,7 +2204,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
         <v>41</v>
       </c>
@@ -2081,14 +2222,14 @@
         <v>11.905999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="5"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
         <v>48</v>
       </c>
@@ -2097,7 +2238,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
         <v>49</v>
       </c>
@@ -2112,7 +2253,7 @@
         <v>1.833</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
@@ -2127,7 +2268,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
@@ -2142,7 +2283,7 @@
         <v>2.819</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
         <v>52</v>
       </c>
@@ -2160,15 +2301,15 @@
         <v>6.3819999999999997</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>44</v>
       </c>
@@ -2183,7 +2324,7 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>45</v>
       </c>
@@ -2198,7 +2339,7 @@
         <v>5.4619999999999997</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
@@ -2214,11 +2355,14 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O1" r:id="rId1" xr:uid="{D2E2B626-1EAD-A241-84CF-C518F2C695FA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
   <ignoredErrors>
     <ignoredError sqref="E13 M13:N13" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>